--- a/doc/bak/开发计划V0.1.xlsx
+++ b/doc/bak/开发计划V0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -810,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,85 +945,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,11 +1635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91:F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1703,7 +1709,7 @@
       <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="61" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="35" t="s">
@@ -1724,7 +1730,7 @@
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="35" t="s">
         <v>68</v>
       </c>
@@ -1743,7 +1749,7 @@
       <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="35" t="s">
         <v>67</v>
       </c>
@@ -1764,7 +1770,7 @@
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="35"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -1781,7 +1787,7 @@
       <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="35"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -1798,7 +1804,7 @@
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="58" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1820,7 +1826,7 @@
       <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
@@ -1841,7 +1847,7 @@
       <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
@@ -1870,8 +1876,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="64" t="s">
         <v>126</v>
       </c>
       <c r="C11" s="33" t="s">
@@ -1905,8 +1911,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="33" t="s">
         <v>8</v>
       </c>
@@ -1936,8 +1942,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="33" t="s">
         <v>7</v>
       </c>
@@ -1965,8 +1971,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="33" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2002,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="64" t="s">
         <v>127</v>
       </c>
       <c r="C15" s="33" t="s">
@@ -2029,9 +2035,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -2060,8 +2066,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="50"/>
       <c r="D17" s="33" t="s">
         <v>10</v>
@@ -2089,8 +2095,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="33" t="s">
         <v>11</v>
       </c>
@@ -2118,8 +2124,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="64" t="s">
         <v>128</v>
       </c>
       <c r="C19" s="33" t="s">
@@ -2151,9 +2157,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="48" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -2182,8 +2188,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="50"/>
       <c r="D21" s="33" t="s">
         <v>10</v>
@@ -2211,8 +2217,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="33" t="s">
         <v>11</v>
       </c>
@@ -2240,8 +2246,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="33" t="s">
         <v>96</v>
       </c>
@@ -2269,8 +2275,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="33" t="s">
         <v>95</v>
       </c>
@@ -2298,8 +2304,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="64" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="33" t="s">
@@ -2331,9 +2337,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="48" t="s">
+      <c r="A26" s="58"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="33" t="s">
@@ -2362,8 +2368,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="50"/>
       <c r="D27" s="33" t="s">
         <v>10</v>
@@ -2391,8 +2397,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="33" t="s">
         <v>11</v>
       </c>
@@ -2420,8 +2426,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="33" t="s">
         <v>23</v>
       </c>
@@ -2449,8 +2455,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="55"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="33" t="s">
         <v>22</v>
       </c>
@@ -2478,8 +2484,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="55"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="33" t="s">
         <v>24</v>
       </c>
@@ -2507,8 +2513,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="55"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="33" t="s">
         <v>18</v>
       </c>
@@ -2536,8 +2542,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="33" t="s">
         <v>19</v>
       </c>
@@ -2565,8 +2571,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="55"/>
-      <c r="B34" s="58" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="64" t="s">
         <v>129</v>
       </c>
       <c r="C34" s="33" t="s">
@@ -2598,9 +2604,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="55"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="48" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="33" t="s">
@@ -2629,8 +2635,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="55"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="50"/>
       <c r="D36" s="33" t="s">
         <v>10</v>
@@ -2658,8 +2664,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="55"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="33" t="s">
         <v>11</v>
       </c>
@@ -2687,8 +2693,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="55"/>
-      <c r="B38" s="58" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="64" t="s">
         <v>130</v>
       </c>
       <c r="C38" s="33" t="s">
@@ -2720,9 +2726,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="55"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="48" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="33" t="s">
@@ -2751,8 +2757,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="55"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="50"/>
       <c r="D40" s="33" t="s">
         <v>10</v>
@@ -2780,8 +2786,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="55"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="33" t="s">
         <v>11</v>
       </c>
@@ -2809,8 +2815,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="55"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="64" t="s">
         <v>131</v>
       </c>
       <c r="C42" s="33" t="s">
@@ -2842,9 +2848,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="55"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="48" t="s">
+      <c r="A43" s="58"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="33" t="s">
@@ -2873,8 +2879,8 @@
       </c>
     </row>
     <row r="44" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="55"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="50"/>
       <c r="D44" s="33" t="s">
         <v>10</v>
@@ -2902,8 +2908,8 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="55"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="33" t="s">
         <v>11</v>
       </c>
@@ -2931,8 +2937,8 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="55"/>
-      <c r="B46" s="59"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="31" t="s">
         <v>20</v>
       </c>
@@ -2960,8 +2966,8 @@
       </c>
     </row>
     <row r="47" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="55"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="31" t="s">
         <v>21</v>
       </c>
@@ -2989,8 +2995,8 @@
       </c>
     </row>
     <row r="48" spans="1:13" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="55"/>
-      <c r="B48" s="58" t="s">
+      <c r="A48" s="58"/>
+      <c r="B48" s="64" t="s">
         <v>132</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -3022,8 +3028,8 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="55"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="32"/>
       <c r="D49" s="33" t="s">
         <v>5</v>
@@ -3053,8 +3059,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="55"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="31" t="s">
         <v>14</v>
       </c>
@@ -3084,8 +3090,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="55"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="32"/>
       <c r="D51" s="33" t="s">
         <v>5</v>
@@ -3113,8 +3119,8 @@
       </c>
     </row>
     <row r="52" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="55"/>
-      <c r="B52" s="58" t="s">
+      <c r="A52" s="58"/>
+      <c r="B52" s="64" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="33" t="s">
@@ -3146,9 +3152,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="55"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="48" t="s">
+      <c r="A53" s="58"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="33" t="s">
@@ -3177,8 +3183,8 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="55"/>
-      <c r="B54" s="59"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="50"/>
       <c r="D54" s="33" t="s">
         <v>10</v>
@@ -3206,8 +3212,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="55"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="33" t="s">
         <v>11</v>
       </c>
@@ -3248,7 +3254,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="61" t="s">
         <v>123</v>
       </c>
       <c r="B57" s="36" t="s">
@@ -3273,7 +3279,7 @@
       <c r="M57" s="33"/>
     </row>
     <row r="58" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="57"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="36" t="s">
         <v>15</v>
       </c>
@@ -3294,7 +3300,7 @@
       <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="36" t="s">
         <v>16</v>
       </c>
@@ -3315,8 +3321,8 @@
       <c r="M59" s="33"/>
     </row>
     <row r="60" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
-      <c r="B60" s="64" t="s">
+      <c r="A60" s="62"/>
+      <c r="B60" s="59" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="13" t="s">
@@ -3348,11 +3354,11 @@
       <c r="M60" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N60" s="67"/>
+      <c r="N60" s="48"/>
     </row>
     <row r="61" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
-      <c r="B61" s="65"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="31" t="s">
         <v>115</v>
       </c>
@@ -3380,12 +3386,12 @@
       <c r="M61" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N61" s="67"/>
+      <c r="N61" s="48"/>
     </row>
     <row r="62" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="57"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="48" t="s">
+      <c r="A62" s="62"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="49" t="s">
         <v>108</v>
       </c>
       <c r="D62" s="33" t="s">
@@ -3416,8 +3422,8 @@
       </c>
     </row>
     <row r="63" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57"/>
-      <c r="B63" s="65"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="50"/>
       <c r="D63" s="33" t="s">
         <v>110</v>
@@ -3447,9 +3453,9 @@
       </c>
     </row>
     <row r="64" spans="1:14" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="48" t="s">
+      <c r="A64" s="62"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="49" t="s">
         <v>107</v>
       </c>
       <c r="D64" s="31" t="s">
@@ -3478,9 +3484,9 @@
       </c>
     </row>
     <row r="65" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="49"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="33" t="s">
         <v>34</v>
       </c>
@@ -3509,9 +3515,9 @@
       </c>
     </row>
     <row r="66" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="57"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="49"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="33" t="s">
         <v>111</v>
       </c>
@@ -3538,9 +3544,9 @@
       </c>
     </row>
     <row r="67" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="57"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="49"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="33" t="s">
         <v>112</v>
       </c>
@@ -3569,9 +3575,9 @@
       </c>
     </row>
     <row r="68" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="57"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="49"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="33" t="s">
         <v>113</v>
       </c>
@@ -3600,9 +3606,9 @@
       </c>
     </row>
     <row r="69" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="49"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="33" t="s">
         <v>114</v>
       </c>
@@ -3631,8 +3637,8 @@
       </c>
     </row>
     <row r="70" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="57"/>
-      <c r="B70" s="65"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="50"/>
       <c r="D70" s="11" t="s">
         <v>117</v>
@@ -3652,9 +3658,9 @@
       <c r="M70" s="33"/>
     </row>
     <row r="71" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="57"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="48" t="s">
+      <c r="A71" s="62"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="49" t="s">
         <v>120</v>
       </c>
       <c r="D71" s="19"/>
@@ -3671,8 +3677,8 @@
       <c r="M71" s="33"/>
     </row>
     <row r="72" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="57"/>
-      <c r="B72" s="65"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="60"/>
       <c r="C72" s="50"/>
       <c r="D72" s="33"/>
       <c r="E72" s="21"/>
@@ -3688,9 +3694,9 @@
       <c r="M72" s="33"/>
     </row>
     <row r="73" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="57"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="68" t="s">
+      <c r="A73" s="62"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="53" t="s">
         <v>44</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -3711,9 +3717,9 @@
       <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="57"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="69"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="11" t="s">
         <v>46</v>
       </c>
@@ -3732,9 +3738,9 @@
       <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="57"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="69"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="11" t="s">
         <v>47</v>
       </c>
@@ -3753,9 +3759,9 @@
       <c r="M75" s="33"/>
     </row>
     <row r="76" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="57"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="69"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="11" t="s">
         <v>48</v>
       </c>
@@ -3774,9 +3780,9 @@
       <c r="M76" s="33"/>
     </row>
     <row r="77" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="57"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="70"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="11" t="s">
         <v>49</v>
       </c>
@@ -3795,11 +3801,11 @@
       <c r="M77" s="33"/>
     </row>
     <row r="78" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="57"/>
-      <c r="B78" s="53" t="s">
+      <c r="A78" s="62"/>
+      <c r="B78" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="71" t="s">
+      <c r="C78" s="56" t="s">
         <v>64</v>
       </c>
       <c r="D78" s="34" t="s">
@@ -3820,9 +3826,9 @@
       <c r="M78" s="33"/>
     </row>
     <row r="79" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="57"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="72"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="34" t="s">
         <v>51</v>
       </c>
@@ -3841,9 +3847,9 @@
       <c r="M79" s="33"/>
     </row>
     <row r="80" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="57"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="72"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="34" t="s">
         <v>48</v>
       </c>
@@ -3860,9 +3866,9 @@
       <c r="M80" s="33"/>
     </row>
     <row r="81" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="57"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="72"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="57"/>
       <c r="D81" s="34" t="s">
         <v>52</v>
       </c>
@@ -3879,12 +3885,12 @@
       <c r="M81" s="33"/>
     </row>
     <row r="82" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="57"/>
-      <c r="B82" s="54"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="71"/>
       <c r="C82" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="48" t="s">
+      <c r="D82" s="49" t="s">
         <v>53</v>
       </c>
       <c r="E82" s="33" t="s">
@@ -3914,11 +3920,11 @@
       </c>
     </row>
     <row r="83" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="57"/>
-      <c r="B83" s="54"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="71"/>
       <c r="C83" s="51"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="48" t="s">
+      <c r="D83" s="52"/>
+      <c r="E83" s="49" t="s">
         <v>27</v>
       </c>
       <c r="F83" s="33" t="s">
@@ -3945,10 +3951,10 @@
       </c>
     </row>
     <row r="84" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="57"/>
-      <c r="B84" s="54"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="71"/>
       <c r="C84" s="51"/>
-      <c r="D84" s="49"/>
+      <c r="D84" s="52"/>
       <c r="E84" s="50"/>
       <c r="F84" s="33" t="s">
         <v>10</v>
@@ -3974,10 +3980,10 @@
       </c>
     </row>
     <row r="85" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="57"/>
-      <c r="B85" s="54"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="71"/>
       <c r="C85" s="51"/>
-      <c r="D85" s="49"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="33" t="s">
         <v>11</v>
       </c>
@@ -4003,10 +4009,10 @@
       </c>
     </row>
     <row r="86" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="57"/>
-      <c r="B86" s="54"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="71"/>
       <c r="C86" s="51"/>
-      <c r="D86" s="49"/>
+      <c r="D86" s="52"/>
       <c r="E86" s="33" t="s">
         <v>100</v>
       </c>
@@ -4032,10 +4038,10 @@
       </c>
     </row>
     <row r="87" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="57"/>
-      <c r="B87" s="54"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="71"/>
       <c r="C87" s="51"/>
-      <c r="D87" s="49"/>
+      <c r="D87" s="52"/>
       <c r="E87" s="33" t="s">
         <v>101</v>
       </c>
@@ -4055,10 +4061,10 @@
       <c r="M87" s="33"/>
     </row>
     <row r="88" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="57"/>
-      <c r="B88" s="54"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="71"/>
       <c r="C88" s="51"/>
-      <c r="D88" s="49"/>
+      <c r="D88" s="52"/>
       <c r="E88" s="31" t="s">
         <v>102</v>
       </c>
@@ -4078,11 +4084,11 @@
       </c>
     </row>
     <row r="89" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
-      <c r="B89" s="54"/>
+      <c r="A89" s="62"/>
+      <c r="B89" s="71"/>
       <c r="C89" s="51"/>
-      <c r="D89" s="49"/>
-      <c r="E89" s="48" t="s">
+      <c r="D89" s="52"/>
+      <c r="E89" s="49" t="s">
         <v>103</v>
       </c>
       <c r="F89" s="33" t="s">
@@ -4109,11 +4115,11 @@
       </c>
     </row>
     <row r="90" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="57"/>
-      <c r="B90" s="54"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="71"/>
       <c r="C90" s="51"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
       <c r="F90" s="33" t="s">
         <v>105</v>
       </c>
@@ -4138,351 +4144,227 @@
       </c>
     </row>
     <row r="91" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="57"/>
-      <c r="B91" s="54"/>
+      <c r="A91" s="62"/>
+      <c r="B91" s="71"/>
       <c r="C91" s="51"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="H91" s="29">
-        <v>42975</v>
-      </c>
-      <c r="I91" s="29">
-        <v>42978</v>
-      </c>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
       <c r="J91" s="41"/>
-      <c r="K91" s="42">
-        <v>1</v>
-      </c>
-      <c r="L91" s="7">
-        <v>1</v>
-      </c>
-      <c r="M91" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="K91" s="42"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="46"/>
     </row>
     <row r="92" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="57"/>
-      <c r="B92" s="54"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="71"/>
       <c r="C92" s="51"/>
-      <c r="D92" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F92" s="33"/>
-      <c r="G92" s="36">
-        <v>1</v>
-      </c>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
       <c r="J92" s="41"/>
-      <c r="K92" s="42">
-        <v>2</v>
-      </c>
+      <c r="K92" s="42"/>
       <c r="L92" s="7"/>
-      <c r="M92" s="33"/>
+      <c r="M92" s="46"/>
     </row>
     <row r="93" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="57"/>
-      <c r="B93" s="54"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="71"/>
       <c r="C93" s="51"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F93" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="G93" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
       <c r="J93" s="41"/>
-      <c r="K93" s="42">
-        <v>2</v>
-      </c>
+      <c r="K93" s="42"/>
       <c r="L93" s="7"/>
-      <c r="M93" s="33"/>
+      <c r="M93" s="46"/>
     </row>
     <row r="94" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="57"/>
-      <c r="B94" s="54"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="71"/>
       <c r="C94" s="51"/>
-      <c r="D94" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G94" s="36">
-        <v>1</v>
-      </c>
-      <c r="H94" s="29">
-        <v>42971</v>
-      </c>
-      <c r="I94" s="29">
-        <v>42971</v>
-      </c>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
       <c r="J94" s="41"/>
-      <c r="K94" s="42">
-        <v>1</v>
-      </c>
-      <c r="L94" s="7">
-        <v>1</v>
-      </c>
-      <c r="M94" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="K94" s="42"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="46"/>
     </row>
     <row r="95" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="57"/>
-      <c r="B95" s="54"/>
+      <c r="A95" s="62"/>
+      <c r="B95" s="71"/>
       <c r="C95" s="51"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G95" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="H95" s="29">
-        <v>42971</v>
-      </c>
-      <c r="I95" s="29">
-        <v>42971</v>
-      </c>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
       <c r="J95" s="41"/>
-      <c r="K95" s="42">
-        <v>1</v>
-      </c>
-      <c r="L95" s="7">
-        <v>1</v>
-      </c>
-      <c r="M95" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="K95" s="42"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="46"/>
     </row>
     <row r="96" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="57"/>
-      <c r="B96" s="54"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="71"/>
       <c r="C96" s="51"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="H96" s="29">
-        <v>42971</v>
-      </c>
-      <c r="I96" s="29">
-        <v>42971</v>
-      </c>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
       <c r="J96" s="41"/>
-      <c r="K96" s="42">
-        <v>1</v>
-      </c>
-      <c r="L96" s="7">
-        <v>1</v>
-      </c>
-      <c r="M96" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="K96" s="42"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="46"/>
     </row>
     <row r="97" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="57"/>
-      <c r="B97" s="54"/>
+      <c r="A97" s="62"/>
+      <c r="B97" s="71"/>
       <c r="C97" s="51"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="33"/>
-      <c r="G97" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="H97" s="29">
-        <v>42971</v>
-      </c>
-      <c r="I97" s="29">
-        <v>42971</v>
-      </c>
+      <c r="D97" s="52"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
       <c r="J97" s="41"/>
-      <c r="K97" s="42">
-        <v>1</v>
-      </c>
-      <c r="L97" s="7">
-        <v>1</v>
-      </c>
-      <c r="M97" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="K97" s="42"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="46"/>
     </row>
     <row r="98" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F98" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G98" s="27">
-        <f>SUM(G57:G97)</f>
-        <v>21.3</v>
-      </c>
+      <c r="A98" s="62"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
       <c r="J98" s="41"/>
       <c r="K98" s="42"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="46"/>
     </row>
     <row r="99" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="B99" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="36">
-        <v>2</v>
-      </c>
-      <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
+      <c r="A99" s="62"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
       <c r="J99" s="41"/>
-      <c r="K99" s="42">
-        <v>1</v>
-      </c>
+      <c r="K99" s="42"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="33" t="s">
-        <v>81</v>
-      </c>
+      <c r="M99" s="46"/>
     </row>
     <row r="100" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="55"/>
-      <c r="B100" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="36">
-        <v>2</v>
-      </c>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
+      <c r="A100" s="62"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
       <c r="J100" s="41"/>
-      <c r="K100" s="42">
-        <v>1</v>
-      </c>
+      <c r="K100" s="42"/>
       <c r="L100" s="7"/>
-      <c r="M100" s="33" t="s">
-        <v>81</v>
-      </c>
+      <c r="M100" s="46"/>
     </row>
     <row r="101" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="55"/>
-      <c r="B101" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="36">
-        <v>2</v>
-      </c>
-      <c r="H101" s="33"/>
-      <c r="I101" s="33"/>
+      <c r="A101" s="62"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
       <c r="J101" s="41"/>
-      <c r="K101" s="42">
-        <v>1</v>
-      </c>
+      <c r="K101" s="42"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="55"/>
-      <c r="B102" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C102" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F102" s="33"/>
-      <c r="G102" s="36">
-        <v>1</v>
-      </c>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
+      <c r="M101" s="46"/>
+    </row>
+    <row r="102" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="62"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
       <c r="J102" s="41"/>
-      <c r="K102" s="42">
-        <v>1</v>
-      </c>
-      <c r="L102" s="7">
-        <v>1</v>
-      </c>
-      <c r="M102" s="33" t="s">
-        <v>81</v>
-      </c>
+      <c r="K102" s="42"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="46"/>
     </row>
     <row r="103" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="55"/>
-      <c r="B103" s="54"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F103" s="33"/>
+      <c r="A103" s="62"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="G103" s="36">
-        <v>0</v>
-      </c>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="H103" s="29">
+        <v>42975</v>
+      </c>
+      <c r="I103" s="29">
+        <v>42978</v>
+      </c>
       <c r="J103" s="41"/>
       <c r="K103" s="42">
-        <v>2</v>
-      </c>
-      <c r="L103" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="L103" s="7">
+        <v>1</v>
+      </c>
       <c r="M103" s="33" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="55"/>
-      <c r="B104" s="54"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="63"/>
+      <c r="A104" s="62"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="49" t="s">
+        <v>79</v>
+      </c>
       <c r="E104" s="33" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -4491,25 +4373,21 @@
         <v>2</v>
       </c>
       <c r="L104" s="7"/>
-      <c r="M104" s="33" t="s">
-        <v>81</v>
-      </c>
+      <c r="M104" s="33"/>
     </row>
     <row r="105" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="55"/>
-      <c r="B105" s="54"/>
-      <c r="C105" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>40</v>
-      </c>
+      <c r="A105" s="62"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="50"/>
       <c r="E105" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F105" s="33"/>
-      <c r="G105" s="36">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G105" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
@@ -4518,97 +4396,119 @@
         <v>2</v>
       </c>
       <c r="L105" s="7"/>
-      <c r="M105" s="33" t="s">
-        <v>81</v>
-      </c>
+      <c r="M105" s="33"/>
     </row>
     <row r="106" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="55"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="61" t="s">
-        <v>36</v>
+      <c r="A106" s="62"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F106" s="33"/>
+        <v>4</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>93</v>
+      </c>
       <c r="G106" s="36">
-        <v>0</v>
-      </c>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="H106" s="29">
+        <v>42971</v>
+      </c>
+      <c r="I106" s="29">
+        <v>42971</v>
+      </c>
       <c r="J106" s="41"/>
       <c r="K106" s="42">
-        <v>2</v>
-      </c>
-      <c r="L106" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="L106" s="7">
+        <v>1</v>
+      </c>
       <c r="M106" s="33" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="55"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="62"/>
-      <c r="E107" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="33"/>
+      <c r="A107" s="62"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>5</v>
+      </c>
       <c r="G107" s="36">
-        <v>0</v>
-      </c>
-      <c r="H107" s="33"/>
-      <c r="I107" s="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="H107" s="29">
+        <v>42971</v>
+      </c>
+      <c r="I107" s="29">
+        <v>42971</v>
+      </c>
       <c r="J107" s="41"/>
       <c r="K107" s="42">
-        <v>2</v>
-      </c>
-      <c r="L107" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="L107" s="7">
+        <v>1</v>
+      </c>
       <c r="M107" s="33" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="55"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="50"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F108" s="33"/>
+      <c r="A108" s="62"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="G108" s="36">
-        <v>0</v>
-      </c>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="H108" s="29">
+        <v>42971</v>
+      </c>
+      <c r="I108" s="29">
+        <v>42971</v>
+      </c>
       <c r="J108" s="41"/>
       <c r="K108" s="42">
-        <v>2</v>
-      </c>
-      <c r="L108" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="L108" s="7">
+        <v>1</v>
+      </c>
       <c r="M108" s="33" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="55"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="33"/>
+      <c r="A109" s="62"/>
+      <c r="B109" s="71"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="F109" s="33"/>
       <c r="G109" s="36">
-        <v>1</v>
-      </c>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="H109" s="29">
+        <v>42971</v>
+      </c>
+      <c r="I109" s="29">
+        <v>42971</v>
+      </c>
       <c r="J109" s="41"/>
       <c r="K109" s="42">
         <v>1</v>
@@ -4617,45 +4517,33 @@
         <v>1</v>
       </c>
       <c r="M109" s="33" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="55"/>
-      <c r="B110" s="54"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="36">
-        <v>1</v>
-      </c>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
+      <c r="F110" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G110" s="27">
+        <f>SUM(G57:G109)</f>
+        <v>21.3</v>
+      </c>
       <c r="J110" s="41"/>
-      <c r="K110" s="42">
-        <v>1</v>
-      </c>
-      <c r="L110" s="7">
-        <v>1</v>
-      </c>
-      <c r="M110" s="33" t="s">
-        <v>81</v>
-      </c>
+      <c r="K110" s="42"/>
     </row>
     <row r="111" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="55"/>
-      <c r="B111" s="54"/>
-      <c r="C111" s="33" t="s">
-        <v>72</v>
-      </c>
+      <c r="A111" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="33"/>
       <c r="F111" s="33"/>
       <c r="G111" s="36">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H111" s="33"/>
       <c r="I111" s="33"/>
@@ -4663,30 +4551,22 @@
       <c r="K111" s="42">
         <v>1</v>
       </c>
-      <c r="L111" s="7">
-        <v>1</v>
-      </c>
+      <c r="L111" s="7"/>
       <c r="M111" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="55"/>
-      <c r="B112" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>82</v>
-      </c>
+      <c r="A112" s="58"/>
+      <c r="B112" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
       <c r="F112" s="33"/>
       <c r="G112" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" s="33"/>
       <c r="I112" s="33"/>
@@ -4694,26 +4574,22 @@
       <c r="K112" s="42">
         <v>1</v>
       </c>
-      <c r="L112" s="7">
-        <v>1</v>
-      </c>
+      <c r="L112" s="7"/>
       <c r="M112" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="55"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>5</v>
-      </c>
+      <c r="A113" s="58"/>
+      <c r="B113" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
       <c r="F113" s="33"/>
       <c r="G113" s="36">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H113" s="33"/>
       <c r="I113" s="33"/>
@@ -4721,24 +4597,28 @@
       <c r="K113" s="42">
         <v>1</v>
       </c>
-      <c r="L113" s="7">
-        <v>1</v>
-      </c>
+      <c r="L113" s="7"/>
       <c r="M113" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="55"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="47"/>
+    <row r="114" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="58"/>
+      <c r="B114" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>39</v>
+      </c>
       <c r="E114" s="33" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H114" s="33"/>
       <c r="I114" s="33"/>
@@ -4754,172 +4634,164 @@
       </c>
     </row>
     <row r="115" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="55"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="33"/>
+      <c r="A115" s="58"/>
+      <c r="B115" s="71"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="F115" s="33"/>
       <c r="G115" s="36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H115" s="33"/>
       <c r="I115" s="33"/>
       <c r="J115" s="41"/>
       <c r="K115" s="42">
-        <v>1</v>
-      </c>
-      <c r="L115" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L115" s="7"/>
       <c r="M115" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="55"/>
-      <c r="B116" s="53"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E116" s="33"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="33" t="s">
+        <v>38</v>
+      </c>
       <c r="F116" s="33"/>
       <c r="G116" s="36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H116" s="33"/>
       <c r="I116" s="33"/>
       <c r="J116" s="41"/>
       <c r="K116" s="42">
-        <v>1</v>
-      </c>
-      <c r="L116" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L116" s="7"/>
       <c r="M116" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="55"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="49"/>
-      <c r="D117" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="33"/>
+      <c r="A117" s="58"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="F117" s="33"/>
       <c r="G117" s="36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117" s="33"/>
       <c r="I117" s="33"/>
       <c r="J117" s="41"/>
       <c r="K117" s="42">
-        <v>1</v>
-      </c>
-      <c r="L117" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L117" s="7"/>
       <c r="M117" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="55"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" s="33"/>
+      <c r="A118" s="58"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="F118" s="33"/>
       <c r="G118" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="33"/>
       <c r="I118" s="33"/>
       <c r="J118" s="41"/>
       <c r="K118" s="42">
-        <v>1</v>
-      </c>
-      <c r="L118" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L118" s="7"/>
       <c r="M118" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="55"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="A119" s="58"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="68"/>
       <c r="E119" s="33" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="33"/>
       <c r="I119" s="33"/>
       <c r="J119" s="41"/>
       <c r="K119" s="42">
-        <v>1</v>
-      </c>
-      <c r="L119" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L119" s="7"/>
       <c r="M119" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="55"/>
-      <c r="B120" s="54"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="46" t="s">
-        <v>27</v>
-      </c>
+      <c r="A120" s="58"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="69"/>
       <c r="E120" s="33" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="36">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="33"/>
       <c r="J120" s="41"/>
       <c r="K120" s="42">
-        <v>1</v>
-      </c>
-      <c r="L120" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L120" s="7"/>
       <c r="M120" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="55"/>
-      <c r="B121" s="54"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="47"/>
-      <c r="E121" s="33" t="s">
-        <v>10</v>
-      </c>
+      <c r="A121" s="58"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" s="33"/>
       <c r="F121" s="33"/>
       <c r="G121" s="36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H121" s="33"/>
       <c r="I121" s="33"/>
@@ -4935,16 +4807,16 @@
       </c>
     </row>
     <row r="122" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="55"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="50"/>
-      <c r="D122" s="13" t="s">
-        <v>11</v>
+      <c r="A122" s="58"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="74"/>
+      <c r="D122" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="E122" s="33"/>
       <c r="F122" s="33"/>
       <c r="G122" s="36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H122" s="33"/>
       <c r="I122" s="33"/>
@@ -4960,123 +4832,447 @@
       </c>
     </row>
     <row r="123" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="55"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="24" t="s">
+      <c r="A123" s="58"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="42">
+        <v>1</v>
+      </c>
+      <c r="L123" s="7">
+        <v>1</v>
+      </c>
+      <c r="M123" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="58"/>
+      <c r="B124" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F124" s="33"/>
+      <c r="G124" s="36">
+        <v>1</v>
+      </c>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="42">
+        <v>1</v>
+      </c>
+      <c r="L124" s="7">
+        <v>1</v>
+      </c>
+      <c r="M124" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="58"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" s="33"/>
+      <c r="G125" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="42">
+        <v>1</v>
+      </c>
+      <c r="L125" s="7">
+        <v>1</v>
+      </c>
+      <c r="M125" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="58"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="73"/>
+      <c r="E126" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="33"/>
+      <c r="G126" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H126" s="33"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="42">
+        <v>1</v>
+      </c>
+      <c r="L126" s="7">
+        <v>1</v>
+      </c>
+      <c r="M126" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="58"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H127" s="33"/>
+      <c r="I127" s="33"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="42">
+        <v>1</v>
+      </c>
+      <c r="L127" s="7">
+        <v>1</v>
+      </c>
+      <c r="M127" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="58"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H128" s="33"/>
+      <c r="I128" s="33"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="42">
+        <v>1</v>
+      </c>
+      <c r="L128" s="7">
+        <v>1</v>
+      </c>
+      <c r="M128" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="58"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="36">
+        <v>2</v>
+      </c>
+      <c r="H129" s="33"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="42">
+        <v>1</v>
+      </c>
+      <c r="L129" s="7">
+        <v>1</v>
+      </c>
+      <c r="M129" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="58"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="36">
+        <v>1</v>
+      </c>
+      <c r="H130" s="33"/>
+      <c r="I130" s="33"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="42">
+        <v>1</v>
+      </c>
+      <c r="L130" s="7">
+        <v>1</v>
+      </c>
+      <c r="M130" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="58"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F131" s="33"/>
+      <c r="G131" s="36">
+        <v>1</v>
+      </c>
+      <c r="H131" s="33"/>
+      <c r="I131" s="33"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="42">
+        <v>1</v>
+      </c>
+      <c r="L131" s="7">
+        <v>1</v>
+      </c>
+      <c r="M131" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="58"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="33"/>
+      <c r="G132" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="42">
+        <v>1</v>
+      </c>
+      <c r="L132" s="7">
+        <v>1</v>
+      </c>
+      <c r="M132" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="58"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="33"/>
+      <c r="G133" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="42">
+        <v>1</v>
+      </c>
+      <c r="L133" s="7">
+        <v>1</v>
+      </c>
+      <c r="M133" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="58"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="H134" s="33"/>
+      <c r="I134" s="33"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="42">
+        <v>1</v>
+      </c>
+      <c r="L134" s="7">
+        <v>1</v>
+      </c>
+      <c r="M134" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="58"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D123" s="25"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="26">
+      <c r="D135" s="25"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="26">
         <v>0</v>
       </c>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="43"/>
-      <c r="K123" s="42">
+      <c r="H135" s="24"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="43"/>
+      <c r="K135" s="42">
         <v>2</v>
       </c>
-      <c r="L123" s="7"/>
-      <c r="M123" s="33"/>
-    </row>
-    <row r="124" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="55"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="24" t="s">
+      <c r="L135" s="7"/>
+      <c r="M135" s="33"/>
+    </row>
+    <row r="136" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="58"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D124" s="25"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="26">
+      <c r="D136" s="25"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="26">
         <v>0</v>
       </c>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="42">
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="43"/>
+      <c r="K136" s="42">
         <v>2</v>
       </c>
-      <c r="L124" s="7"/>
-      <c r="M124" s="33"/>
-    </row>
-    <row r="125" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="55"/>
-      <c r="B125" s="54"/>
-      <c r="C125" s="24" t="s">
+      <c r="L136" s="7"/>
+      <c r="M136" s="33"/>
+    </row>
+    <row r="137" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="58"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="26">
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="26">
         <v>0</v>
       </c>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="43"/>
-      <c r="K125" s="42">
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="43"/>
+      <c r="K137" s="42">
         <v>2</v>
       </c>
-      <c r="L125" s="7"/>
-      <c r="M125" s="33"/>
-    </row>
-    <row r="126" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="55"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="24" t="s">
+      <c r="L137" s="7"/>
+      <c r="M137" s="33"/>
+    </row>
+    <row r="138" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="58"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="26">
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="26">
         <v>0</v>
       </c>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="43"/>
-      <c r="K126" s="42">
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="43"/>
+      <c r="K138" s="42">
         <v>2</v>
       </c>
-      <c r="L126" s="7"/>
-      <c r="M126" s="33"/>
-    </row>
-    <row r="127" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F127" s="28" t="s">
+      <c r="L138" s="7"/>
+      <c r="M138" s="33"/>
+    </row>
+    <row r="139" spans="1:13" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F139" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G127" s="27">
-        <f>SUM(G99:G126)</f>
+      <c r="G139" s="27">
+        <f>SUM(G111:G138)</f>
         <v>18</v>
       </c>
-      <c r="J127" s="44"/>
-      <c r="K127" s="45"/>
-    </row>
-    <row r="128" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G128" s="18"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="23"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B129" s="4"/>
+      <c r="J139" s="44"/>
+      <c r="K139" s="45"/>
+    </row>
+    <row r="140" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G140" s="18"/>
+      <c r="J140" s="22"/>
+      <c r="K140" s="23"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B141" s="4"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="L99:L126 L2:L5 L8:L55 L57:L97" name="区域3"/>
+    <protectedRange sqref="L111:L138 L2:L5 L8:L55 L57:L109" name="区域3"/>
   </protectedRanges>
   <mergeCells count="46">
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="C82:C97"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="D82:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="C124:C130"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="B124:B138"/>
+    <mergeCell ref="A111:A138"/>
+    <mergeCell ref="B114:B123"/>
+    <mergeCell ref="B78:B109"/>
+    <mergeCell ref="A57:A109"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="C64:C70"/>
+    <mergeCell ref="D115:D116"/>
     <mergeCell ref="A8:A55"/>
     <mergeCell ref="B60:B77"/>
     <mergeCell ref="A3:A7"/>
@@ -5093,29 +5289,19 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="C64:C70"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="B112:B126"/>
-    <mergeCell ref="A99:A126"/>
-    <mergeCell ref="B102:B111"/>
-    <mergeCell ref="B78:B97"/>
-    <mergeCell ref="A57:A97"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="C82:C109"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="D82:D103"/>
+    <mergeCell ref="E89:E103"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C78:C81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L2:L5 L99:L126 L48:L51 L43:L44 L25:L37 L8:L14 L57:L97">
+  <conditionalFormatting sqref="L2:L5 L111:L138 L48:L51 L43:L44 L25:L37 L8:L14 L57:L109">
     <cfRule type="cellIs" dxfId="33" priority="90" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5199,7 +5385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K126">
+  <conditionalFormatting sqref="K2:K138">
     <cfRule type="cellIs" dxfId="22" priority="30" stopIfTrue="1" operator="equal">
       <formula>5</formula>
     </cfRule>
@@ -5289,13 +5475,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="L8:L55 L99:L126 L2:L5 L57:L97">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="状态错误" error="请从选项中进行选择。" sqref="L8:L55 L111:L138 L2:L5 L57:L109">
       <formula1>"0%,100%,90%,80%,70%,60%,50%,40%,30%,20%,10%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J138">
       <formula1>"√,×"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K138">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
